--- a/iGMS/Images/Good.xlsx
+++ b/iGMS/Images/Good.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -48,27 +48,6 @@
   </si>
   <si>
     <t>CodeGood</t>
-  </si>
-  <si>
-    <t>CT : CodeGood = CONCATENATE(B2,"-",C2,"-",D2)</t>
-  </si>
-  <si>
-    <t>XXLT</t>
-  </si>
-  <si>
-    <t>4XLT</t>
-  </si>
-  <si>
-    <t>LGT</t>
-  </si>
-  <si>
-    <t>4XL</t>
-  </si>
-  <si>
-    <t>XS</t>
-  </si>
-  <si>
-    <t>RFID Apparel Label - IC TW price ROLL version</t>
   </si>
 </sst>
 </file>
@@ -401,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A3" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,114 +419,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>195237012664</v>
-      </c>
-      <c r="B2">
-        <v>123456</v>
-      </c>
-      <c r="C2">
-        <v>400</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="str">
-        <f xml:space="preserve"> CONCATENATE(B2,"-",C2,"-",D2)</f>
-        <v>123456-400-XXLT</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>195240734522</v>
-      </c>
-      <c r="B3">
-        <v>123456</v>
-      </c>
-      <c r="C3">
-        <v>400</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E6" si="0" xml:space="preserve"> CONCATENATE(B3,"-",C3,"-",D3)</f>
-        <v>123456-400-4XLT</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>195240734546</v>
-      </c>
-      <c r="B4">
-        <v>123456</v>
-      </c>
-      <c r="C4">
-        <v>400</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>123456-400-LGT</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>195866150904</v>
-      </c>
-      <c r="B5">
-        <v>123456</v>
-      </c>
-      <c r="C5">
-        <v>400</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>123456-400-4XL</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>195868934601</v>
-      </c>
-      <c r="B6">
-        <v>123456</v>
-      </c>
-      <c r="C6">
-        <v>400</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>123456-400-XS</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/iGMS/Images/Good.xlsx
+++ b/iGMS/Images/Good.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,27 @@
   </si>
   <si>
     <t>CodeGood</t>
+  </si>
+  <si>
+    <t>CT : CodeGood = CONCATENATE(B2,"-",C2,"-",D2)</t>
+  </si>
+  <si>
+    <t>XXLT</t>
+  </si>
+  <si>
+    <t>4XLT</t>
+  </si>
+  <si>
+    <t>LGT</t>
+  </si>
+  <si>
+    <t>4XL</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>RFID Apparel Label - IC TW price ROLL version</t>
   </si>
 </sst>
 </file>
@@ -380,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:XFD6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +440,114 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>195237012664</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="str">
+        <f xml:space="preserve"> CONCATENATE(B2,"-",C2,"-",D2)</f>
+        <v>123456-400-XXLT</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>195240734522</v>
+      </c>
+      <c r="B3">
+        <v>123456</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0" xml:space="preserve"> CONCATENATE(B3,"-",C3,"-",D3)</f>
+        <v>123456-400-4XLT</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>195240734546</v>
+      </c>
+      <c r="B4">
+        <v>123456</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>123456-400-LGT</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>195866150904</v>
+      </c>
+      <c r="B5">
+        <v>123456</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>123456-400-4XL</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>195868934601</v>
+      </c>
+      <c r="B6">
+        <v>123456</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>123456-400-XS</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
